--- a/processed_data/cleaned_data.xlsx
+++ b/processed_data/cleaned_data.xlsx
@@ -878,13 +878,13 @@
         <v>90</v>
       </c>
       <c r="N7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
